--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_48.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_48.xlsx
@@ -508,148 +508,148 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_4</t>
+          <t>model_1_48_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9994732581876837</v>
+        <v>0.9474742546677248</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8227802494975466</v>
+        <v>0.7224115671376492</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8186904541608255</v>
+        <v>0.7766157612336072</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9945433583947922</v>
+        <v>0.8971829507143482</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002192576856104553</v>
+        <v>0.1686227273581978</v>
       </c>
       <c r="G2" t="n">
-        <v>1.185069287631824</v>
+        <v>1.856235128727744</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6485337325352241</v>
+        <v>0.7990324695050155</v>
       </c>
       <c r="I2" t="n">
-        <v>0.009130998329622888</v>
+        <v>0.2381173883136505</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08862025277492104</v>
+        <v>1.029729474922004</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04682495975550383</v>
+        <v>0.4106369775826305</v>
       </c>
       <c r="L2" t="n">
-        <v>1.033711475988241</v>
+        <v>0.9284755808241359</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04756240606386584</v>
+        <v>0.4171040994931764</v>
       </c>
       <c r="N2" t="n">
-        <v>142.2453555604735</v>
+        <v>37.56018288407068</v>
       </c>
       <c r="O2" t="n">
-        <v>283.5805281036899</v>
+        <v>74.52476647229651</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_3</t>
+          <t>model_1_48_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9994803749877664</v>
+        <v>0.9475339073911148</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8226936701825301</v>
+        <v>0.7223695736339173</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8184542232520697</v>
+        <v>0.7767608688392563</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9947736960292624</v>
+        <v>0.8984431106225388</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002162952985764101</v>
+        <v>0.1684312249844812</v>
       </c>
       <c r="G3" t="n">
-        <v>1.185648243909999</v>
+        <v>1.856515939480562</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6493787167983883</v>
+        <v>0.7985134280134312</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008745557483812316</v>
+        <v>0.2351989425084002</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09248852816101398</v>
+        <v>1.021366477585296</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04650755837242051</v>
+        <v>0.4104037341258985</v>
       </c>
       <c r="L3" t="n">
-        <v>1.033256000782949</v>
+        <v>0.9285568100644968</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04724000592628395</v>
+        <v>0.4168671826851587</v>
       </c>
       <c r="N3" t="n">
-        <v>142.2725617358179</v>
+        <v>37.56245554567862</v>
       </c>
       <c r="O3" t="n">
-        <v>283.6077342790343</v>
+        <v>74.52703913390444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_5</t>
+          <t>model_1_48_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995278878769435</v>
+        <v>0.9475901152507126</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8226780326481861</v>
+        <v>0.7223233037953285</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8189607561634421</v>
+        <v>0.7769076422232559</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9951366385749328</v>
+        <v>0.8996948426942102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001965179316121271</v>
+        <v>0.1682507816128663</v>
       </c>
       <c r="G4" t="n">
-        <v>1.185752812174163</v>
+        <v>1.856825346104258</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6475668779448752</v>
+        <v>0.7979884281292742</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008138219121127293</v>
+        <v>0.2323000150071184</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08138277808292822</v>
+        <v>1.012791945439516</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04433034306342858</v>
+        <v>0.4101838388001974</v>
       </c>
       <c r="L4" t="n">
-        <v>1.030215175875618</v>
+        <v>0.9286333484265022</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04502850165259224</v>
+        <v>0.4166438242278925</v>
       </c>
       <c r="N4" t="n">
-        <v>142.4643435656017</v>
+        <v>37.56459932984713</v>
       </c>
       <c r="O4" t="n">
-        <v>283.7995161088181</v>
+        <v>74.52918291807295</v>
       </c>
     </row>
     <row r="5">
@@ -659,291 +659,291 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999523545367112</v>
+        <v>0.9476424452376718</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8226460533397523</v>
+        <v>0.7222723218922718</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8193585792674826</v>
+        <v>0.777055851073267</v>
       </c>
       <c r="E5" t="n">
-        <v>0.995049807765175</v>
+        <v>0.9009361718221894</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001983255129225873</v>
+        <v>0.1680827873261051</v>
       </c>
       <c r="G5" t="n">
-        <v>1.185966657956911</v>
+        <v>1.857166262324749</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6461438877688312</v>
+        <v>0.7974582936664277</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008283519479153591</v>
+        <v>0.2294251800255104</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08229281989909708</v>
+        <v>1.004025034405311</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04453375269641975</v>
+        <v>0.4099790083968996</v>
       </c>
       <c r="L5" t="n">
-        <v>1.030493096504834</v>
+        <v>0.9287046062810851</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04523511478396797</v>
+        <v>0.4164357679504981</v>
       </c>
       <c r="N5" t="n">
-        <v>142.4460315590251</v>
+        <v>37.5665972785058</v>
       </c>
       <c r="O5" t="n">
-        <v>283.7812041022415</v>
+        <v>74.53118086673163</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_7</t>
+          <t>model_1_48_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9995201795533127</v>
+        <v>0.9476904453777716</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8226033716521566</v>
+        <v>0.7222160677658687</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8194986701102125</v>
+        <v>0.7772059056469787</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9949844521989768</v>
+        <v>0.9021641825790421</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001997265419022001</v>
+        <v>0.1679286930912496</v>
       </c>
       <c r="G6" t="n">
-        <v>1.186252070598394</v>
+        <v>1.857542433927032</v>
       </c>
       <c r="H6" t="n">
-        <v>0.64564279094732</v>
+        <v>0.7969215571569251</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008392883738154581</v>
+        <v>0.2265811894979236</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08238459464396923</v>
+        <v>0.9949888074949994</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04469077554733192</v>
+        <v>0.4097910358844488</v>
       </c>
       <c r="L6" t="n">
-        <v>1.030708508587985</v>
+        <v>0.9287699681739868</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04539461058781676</v>
+        <v>0.4162448350588798</v>
       </c>
       <c r="N6" t="n">
-        <v>142.4319526490115</v>
+        <v>37.56843167113389</v>
       </c>
       <c r="O6" t="n">
-        <v>283.7671251922279</v>
+        <v>74.53301525935971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_9</t>
+          <t>model_1_48_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9994177054348027</v>
+        <v>0.9477335366903805</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8222855434306234</v>
+        <v>0.7221539093729296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8184901621563416</v>
+        <v>0.7773574043485387</v>
       </c>
       <c r="E7" t="n">
-        <v>0.99351534583025</v>
+        <v>0.9033756889403182</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002423816673054602</v>
+        <v>0.1677903576024032</v>
       </c>
       <c r="G7" t="n">
-        <v>1.188377389379251</v>
+        <v>1.85795808738683</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6492501654216651</v>
+        <v>0.7963796550858443</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01085124709961858</v>
+        <v>0.2237754220432385</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09344538331221498</v>
+        <v>0.9856493474890803</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0492322726781387</v>
+        <v>0.4096222132677905</v>
       </c>
       <c r="L7" t="n">
-        <v>1.037266852172628</v>
+        <v>0.9288286457060501</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05000763175860215</v>
+        <v>0.4160733536547698</v>
       </c>
       <c r="N7" t="n">
-        <v>142.0448236871262</v>
+        <v>37.57007990046601</v>
       </c>
       <c r="O7" t="n">
-        <v>283.3799962303427</v>
+        <v>74.53466348869183</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_2</t>
+          <t>model_1_48_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9995472201377149</v>
+        <v>0.9477710514853113</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8222813153844345</v>
+        <v>0.7220850935711589</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8167789245525524</v>
+        <v>0.7775107119444886</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9957879047576192</v>
+        <v>0.9045665106990842</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001884708264549779</v>
+        <v>0.1676699243368211</v>
       </c>
       <c r="G8" t="n">
-        <v>1.188405662343584</v>
+        <v>1.858418258970137</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6553711631071619</v>
+        <v>0.7958312827044167</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007048407684625036</v>
+        <v>0.2210175587402697</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09267783355089022</v>
+        <v>0.9759719635323706</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04341322683871563</v>
+        <v>0.4094751815883609</v>
       </c>
       <c r="L8" t="n">
-        <v>1.028977911186246</v>
+        <v>0.928879729682126</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04409694176411993</v>
+        <v>0.4159240063733669</v>
       </c>
       <c r="N8" t="n">
-        <v>142.5479644737538</v>
+        <v>37.57151593658999</v>
       </c>
       <c r="O8" t="n">
-        <v>283.8831370169702</v>
+        <v>74.53609952481581</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_1</t>
+          <t>model_1_48_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9996381636751064</v>
+        <v>0.9478020018265966</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8222779619960316</v>
+        <v>0.7220084862132949</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8152307098667864</v>
+        <v>0.7776661006508439</v>
       </c>
       <c r="E9" t="n">
-        <v>0.997165936871179</v>
+        <v>0.9057309518704968</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001506153362253588</v>
+        <v>0.1675705648526825</v>
       </c>
       <c r="G9" t="n">
-        <v>1.188428086467276</v>
+        <v>1.858930532724918</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6609090372675016</v>
+        <v>0.7952754663117387</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004742445549404013</v>
+        <v>0.2183207911077799</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09160532195852281</v>
+        <v>0.9659093021449003</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0388091917237861</v>
+        <v>0.4093538382044102</v>
       </c>
       <c r="L9" t="n">
-        <v>1.023157524793191</v>
+        <v>0.9289218748277059</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0394203976984769</v>
+        <v>0.4158007519524179</v>
       </c>
       <c r="N9" t="n">
-        <v>142.9963926412469</v>
+        <v>37.57270146745815</v>
       </c>
       <c r="O9" t="n">
-        <v>284.3315651844633</v>
+        <v>74.53728505568398</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_8</t>
+          <t>model_1_48_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9994538141601124</v>
+        <v>0.9478251562571373</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8220542701398998</v>
+        <v>0.7219228191080254</v>
       </c>
       <c r="D10" t="n">
-        <v>0.818608439548647</v>
+        <v>0.7778233448968759</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9940661453668371</v>
+        <v>0.9068615316259507</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002273513139964376</v>
+        <v>0.1674962324809381</v>
       </c>
       <c r="G10" t="n">
-        <v>1.189923914939235</v>
+        <v>1.859503389052317</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6488270940475058</v>
+        <v>0.7947130127612275</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009929553865499206</v>
+        <v>0.215702444242942</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09022682072061557</v>
+        <v>0.9554008982205635</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04768137099501624</v>
+        <v>0.4092630358106362</v>
       </c>
       <c r="L10" t="n">
-        <v>1.034955893752809</v>
+        <v>0.928953404265038</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04843230492430342</v>
+        <v>0.4157085195117111</v>
       </c>
       <c r="N10" t="n">
-        <v>142.1728580101933</v>
+        <v>37.57358884124219</v>
       </c>
       <c r="O10" t="n">
-        <v>283.5080305534097</v>
+        <v>74.53817242946801</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9996993920668366</v>
+        <v>0.9478388160154707</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8219040198706817</v>
+        <v>0.7218263591504412</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8136862034219438</v>
+        <v>0.7779830288937091</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9982432105153575</v>
+        <v>0.9079476955644267</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001251288547072513</v>
+        <v>0.1674523807337486</v>
       </c>
       <c r="G11" t="n">
-        <v>1.190928639181335</v>
+        <v>1.860148417232839</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6664336472650746</v>
+        <v>0.7941418323635653</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002939764604378705</v>
+        <v>0.2131869614304386</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08789940810760788</v>
+        <v>0.9443697105286744</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03537355717301432</v>
+        <v>0.4092094582652613</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01923890772246</v>
+        <v>0.9289720047870239</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03593065533790502</v>
+        <v>0.4156540981735544</v>
       </c>
       <c r="N11" t="n">
-        <v>143.3671628419164</v>
+        <v>37.57411252452625</v>
       </c>
       <c r="O11" t="n">
-        <v>284.7023353851328</v>
+        <v>74.53869611275208</v>
       </c>
     </row>
   </sheetData>
